--- a/data/fakesystem/sys_BSE.xlsx
+++ b/data/fakesystem/sys_BSE.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BSE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="255">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -154,646 +154,628 @@
     <t>BYND</t>
   </si>
   <si>
-    <t>P4746KWY3MC946KSC</t>
-  </si>
-  <si>
-    <t>8ER3T0DV3X9XCSZTG</t>
-  </si>
-  <si>
-    <t>0EY1P0RF6MBLRLK24</t>
-  </si>
-  <si>
-    <t>BUHPD8M84LL5NZY4T</t>
-  </si>
-  <si>
-    <t>ZHJGY3SY7RVSMTU88</t>
-  </si>
-  <si>
-    <t>HSNENFER8RS0ADZNX</t>
-  </si>
-  <si>
-    <t>S3GZLKY976UK91KWG</t>
-  </si>
-  <si>
-    <t>AE17UTF37EZAYXTMV</t>
-  </si>
-  <si>
-    <t>0KN6NAFB1FKUDBFF3</t>
-  </si>
-  <si>
-    <t>JM04FHPL2V2J82H78</t>
-  </si>
-  <si>
-    <t>E2SKRNT118486BK2W</t>
-  </si>
-  <si>
-    <t>WMW5M8ZW9NA0MUFN7</t>
-  </si>
-  <si>
-    <t>PTZ7PH206J8KFDA4N</t>
-  </si>
-  <si>
-    <t>EYB7S7J69HF9HDZVW</t>
-  </si>
-  <si>
-    <t>96G5K3MP49KUZTC4Y</t>
-  </si>
-  <si>
-    <t>B2B0P9SV2A79FB1X2</t>
-  </si>
-  <si>
-    <t>ELSZP5DU9G2UUT43X</t>
-  </si>
-  <si>
-    <t>55J4ST1P35JB2GV5H</t>
-  </si>
-  <si>
-    <t>AP7ZZLDL1WZ6NZUF7</t>
-  </si>
-  <si>
-    <t>6F6EFVPK179XXRB33</t>
-  </si>
-  <si>
-    <t>X944CH4R9BK0UB04L</t>
-  </si>
-  <si>
-    <t>TAMBTPCK578KP886B</t>
-  </si>
-  <si>
-    <t>G3PAXU6T8Y9TN61XP</t>
-  </si>
-  <si>
-    <t>LTLRRW6D9VRDSCNLF</t>
-  </si>
-  <si>
-    <t>LF8BN3TGXGKDCNMWK</t>
-  </si>
-  <si>
-    <t>0B8DY0T09ZYWXAWM2</t>
-  </si>
-  <si>
-    <t>VCLCJ9DX4NFL17PBD</t>
-  </si>
-  <si>
-    <t>16PJY2NJ336N87N4D</t>
-  </si>
-  <si>
-    <t>4D0ZDU4X7ZBSD3TC5</t>
-  </si>
-  <si>
-    <t>GL4KG3091U0B0W48C</t>
-  </si>
-  <si>
-    <t>F0KJK13D1SFTHUF3E</t>
-  </si>
-  <si>
-    <t>N7N3WK017DA33L828</t>
-  </si>
-  <si>
-    <t>MB5CJFAK3EM4WHG4V</t>
-  </si>
-  <si>
-    <t>E4ERGYMU0XECWE9XE</t>
-  </si>
-  <si>
-    <t>Z7DEXDYL9VLDYSB2A</t>
-  </si>
-  <si>
-    <t>YGEFG9KX32ZWB1J6P</t>
-  </si>
-  <si>
-    <t>1496W0BU4G3M8H9FE</t>
-  </si>
-  <si>
-    <t>Y3N2BECD4VDS3U496</t>
-  </si>
-  <si>
-    <t>G5DBTDFN1RWE21RLS</t>
-  </si>
-  <si>
-    <t>JTAE7DFE99RRRDW96</t>
-  </si>
-  <si>
-    <t>EMU6GZFG28FG7BRFZ</t>
-  </si>
-  <si>
-    <t>PAYYMSA03N7MS3UFF</t>
-  </si>
-  <si>
-    <t>JG3MW8X44JMCM3KLM</t>
-  </si>
-  <si>
-    <t>DA6ND2S83C7H5EUUK</t>
-  </si>
-  <si>
-    <t>C7Z7VDEL1X3TX5MSE</t>
-  </si>
-  <si>
-    <t>XJF1EB3K8KNSKBLVL</t>
-  </si>
-  <si>
-    <t>8N0EXTVY1MBRAKL6Z</t>
-  </si>
-  <si>
-    <t>ZWDSB65J46SBCJKVV</t>
-  </si>
-  <si>
-    <t>DRPRCRK8XYFEYA0N5</t>
-  </si>
-  <si>
-    <t>VMMX0RMLXD95ERV8Z</t>
-  </si>
-  <si>
-    <t>FLV1TMLW3NG3ASYJE</t>
-  </si>
-  <si>
-    <t>8X5FW6AA039NMPXEE</t>
-  </si>
-  <si>
-    <t>X9KUG6LV8M8EPSWNJ</t>
-  </si>
-  <si>
-    <t>YSVFY1UV5R2V3B5KL</t>
-  </si>
-  <si>
-    <t>4KNXF1HB1R356F3Z0</t>
-  </si>
-  <si>
-    <t>3GFCUR0F92TSCKKJL</t>
-  </si>
-  <si>
-    <t>6RPSLDUM9MT9A6UJX</t>
-  </si>
-  <si>
-    <t>XSW2EVK74JDPPSC6X</t>
-  </si>
-  <si>
-    <t>YPSBLLW00KHYJ1P0R</t>
-  </si>
-  <si>
-    <t>MW99A86T3EPM5UTGE</t>
-  </si>
-  <si>
-    <t>GTEY6KY75MHC8KT63</t>
-  </si>
-  <si>
-    <t>2UHKGWGN29YYDXGBA</t>
-  </si>
-  <si>
-    <t>D3832P3E9YF0LZL6J</t>
-  </si>
-  <si>
-    <t>BR0474SZ0CS3UDSXS</t>
-  </si>
-  <si>
-    <t>XHE4GM483K2NLXEPF</t>
-  </si>
-  <si>
-    <t>6RT3UH7V8AJPF69NL</t>
-  </si>
-  <si>
-    <t>H6NTVRBJ9Y4R62LM0</t>
-  </si>
-  <si>
-    <t>1S1MZWXA24CYUSLUV</t>
-  </si>
-  <si>
-    <t>CLTJD8212XAUY183C</t>
-  </si>
-  <si>
-    <t>FMDA00JJ4LBPLT4C6</t>
-  </si>
-  <si>
-    <t>7AAD4CPC6CDJA684E</t>
-  </si>
-  <si>
-    <t>635D76P97ECYFJG9W</t>
-  </si>
-  <si>
-    <t>8WSZP53M57HCBEU8W</t>
-  </si>
-  <si>
-    <t>DGH9A7FY9BCKGCZ27</t>
-  </si>
-  <si>
-    <t>20G4JL8WXZB0HZXZ8</t>
-  </si>
-  <si>
-    <t>CZXDY8Z75WKJUKB59</t>
-  </si>
-  <si>
-    <t>2NCTAH756YMY3XAK7</t>
-  </si>
-  <si>
-    <t>9XS13KVG2R3V5V3NC</t>
-  </si>
-  <si>
-    <t>9LUZXLX25VYY1FKH6</t>
-  </si>
-  <si>
-    <t>15R176HS7YPFFATJB</t>
-  </si>
-  <si>
-    <t>3YHNBNF08W729HKPA</t>
-  </si>
-  <si>
-    <t>M5W3VEM65V4UK10YW</t>
-  </si>
-  <si>
-    <t>TTDWT1X774TDWA16V</t>
-  </si>
-  <si>
-    <t>1LERHW078CJU747G3</t>
-  </si>
-  <si>
-    <t>5WR2C9ZJX7W2GS78U</t>
-  </si>
-  <si>
-    <t>0GKM0TJ235F7G271R</t>
-  </si>
-  <si>
-    <t>TX7PPJ4V3HKK783WW</t>
-  </si>
-  <si>
-    <t>YHA7AABW61ELPC7FD</t>
-  </si>
-  <si>
-    <t>U3SGKD2W309VCLZJ7</t>
-  </si>
-  <si>
-    <t>SA6JEYAK34FX6BARK</t>
-  </si>
-  <si>
-    <t>FXCA9TPP6FVHPUV4U</t>
-  </si>
-  <si>
-    <t>LDL1VGNN2V3JUATP9</t>
-  </si>
-  <si>
-    <t>KNEN0WK58FVBMWEFK</t>
-  </si>
-  <si>
-    <t>ECLHGU9G22XRX1SYW</t>
-  </si>
-  <si>
-    <t>51S69J5S9HBRD4BRL</t>
-  </si>
-  <si>
-    <t>KF975LV85674FG4A3</t>
-  </si>
-  <si>
-    <t>YENRF14S6GGHAHDFC</t>
-  </si>
-  <si>
-    <t>3NW5KLUW3G4D7HKNE</t>
-  </si>
-  <si>
-    <t>H50ZTRZRXWG17JPAU</t>
-  </si>
-  <si>
-    <t>CUGUF8KN29YVJ3R5Z</t>
-  </si>
-  <si>
-    <t>HA0BP8ZN61AWG8T7Y</t>
-  </si>
-  <si>
-    <t>6FKLUDJF369JX0XP6</t>
-  </si>
-  <si>
-    <t>0P5LM62S5A2VL28KJ</t>
-  </si>
-  <si>
-    <t>ZGGDRPV500LAKVTXL</t>
-  </si>
-  <si>
-    <t>679N4N9Y9ARU18DV1</t>
-  </si>
-  <si>
-    <t>Y7CE1YW319DMCY9DW</t>
-  </si>
-  <si>
-    <t>NDLAJKK5XC8W06VDF</t>
-  </si>
-  <si>
-    <t>Sharon Bell</t>
-  </si>
-  <si>
-    <t>Felicia Davis</t>
-  </si>
-  <si>
-    <t>Morgan Griffin</t>
-  </si>
-  <si>
-    <t>Juan Ritter</t>
-  </si>
-  <si>
-    <t>Anna Nichols</t>
-  </si>
-  <si>
-    <t>Brian Shields</t>
-  </si>
-  <si>
-    <t>Anna Richard</t>
-  </si>
-  <si>
-    <t>Michelle Bullock</t>
-  </si>
-  <si>
-    <t>Donald Schmidt</t>
-  </si>
-  <si>
-    <t>Heather Reed</t>
-  </si>
-  <si>
-    <t>Tara Walters</t>
-  </si>
-  <si>
-    <t>Jeremy Dawson</t>
-  </si>
-  <si>
-    <t>Steven Merritt</t>
-  </si>
-  <si>
-    <t>Wayne Ward</t>
-  </si>
-  <si>
-    <t>Hannah Hobbs</t>
-  </si>
-  <si>
-    <t>Christopher Whitehead</t>
-  </si>
-  <si>
-    <t>Christopher Valencia</t>
-  </si>
-  <si>
-    <t>Jennifer Clay</t>
+    <t>EWBZM6YV67W33MXY9</t>
+  </si>
+  <si>
+    <t>CHGZSPRZ5PWC0MNX7</t>
+  </si>
+  <si>
+    <t>L3UR5ZAF6EEFPVSLW</t>
+  </si>
+  <si>
+    <t>R31P76VR2F5N3X1E8</t>
+  </si>
+  <si>
+    <t>WRZZDUR66UZWVB0DH</t>
+  </si>
+  <si>
+    <t>AURG7K1RXGMNSYLSV</t>
+  </si>
+  <si>
+    <t>0DNJW78M083L0E0P7</t>
+  </si>
+  <si>
+    <t>NP81YVTZ4ZCUM4H39</t>
+  </si>
+  <si>
+    <t>99TTCX5T43R1RRWR1</t>
+  </si>
+  <si>
+    <t>2U5PJRW18MG4XGATV</t>
+  </si>
+  <si>
+    <t>G59DLRJL1PZG4CJA4</t>
+  </si>
+  <si>
+    <t>84VMZT0J5EV4Z4PTA</t>
+  </si>
+  <si>
+    <t>U3PEA95G89A21J3S4</t>
+  </si>
+  <si>
+    <t>6ZCWTERS0VE2PLHFV</t>
+  </si>
+  <si>
+    <t>8B4GNML15YXXVADSK</t>
+  </si>
+  <si>
+    <t>6UEAKUUG0MDWUWSM7</t>
+  </si>
+  <si>
+    <t>G7JVD2NB55B88HDBU</t>
+  </si>
+  <si>
+    <t>LPVMT3F59VPK908B7</t>
+  </si>
+  <si>
+    <t>GC52YU0G8WD6VECZT</t>
+  </si>
+  <si>
+    <t>ETLVMEE98NG5W3RLP</t>
+  </si>
+  <si>
+    <t>ZMM341TC2DMX3HRWM</t>
+  </si>
+  <si>
+    <t>KDHDBJYA0JYPJ3JGA</t>
+  </si>
+  <si>
+    <t>B9M0DH580TU8SSDJR</t>
+  </si>
+  <si>
+    <t>3A1WUKPCXKXAH6D05</t>
+  </si>
+  <si>
+    <t>41U8TLYJ6NM1SCWVX</t>
+  </si>
+  <si>
+    <t>NJN9V37T6UUY1K54A</t>
+  </si>
+  <si>
+    <t>4WF0HF9P3EBMNLCMK</t>
+  </si>
+  <si>
+    <t>G7H6EFJK5Z4XLHWZU</t>
+  </si>
+  <si>
+    <t>WJ50UZHW7D0KDYJ3T</t>
+  </si>
+  <si>
+    <t>0SF540P68CBD629C0</t>
+  </si>
+  <si>
+    <t>1X7AMZWL75ZCPM5SE</t>
+  </si>
+  <si>
+    <t>S894FJHP9CMC7LYCW</t>
+  </si>
+  <si>
+    <t>02TPGEN41PKZ2C1GN</t>
+  </si>
+  <si>
+    <t>8B2T34BVXBURNJC5B</t>
+  </si>
+  <si>
+    <t>PD9YLXYKXHXCU345L</t>
+  </si>
+  <si>
+    <t>0HWEB0JH30NPDP45A</t>
+  </si>
+  <si>
+    <t>57S8X0BEXT7V1HHKX</t>
+  </si>
+  <si>
+    <t>JK0G4VFBX83A256LG</t>
+  </si>
+  <si>
+    <t>2ZH9MAG3X6PH2N5EE</t>
+  </si>
+  <si>
+    <t>B8D12HHP51F55B9GB</t>
+  </si>
+  <si>
+    <t>53RGF9KH8ZDDV0KXR</t>
+  </si>
+  <si>
+    <t>7JMLCVFP13CR2TZN8</t>
+  </si>
+  <si>
+    <t>0Y7YWUA2XJY8BNNPG</t>
+  </si>
+  <si>
+    <t>BPMJYD9X4A56NNBUD</t>
+  </si>
+  <si>
+    <t>JU1UWK9HXA0DKZYW3</t>
+  </si>
+  <si>
+    <t>JEHYWPP47ARLJZKM0</t>
+  </si>
+  <si>
+    <t>9KJU8S5S7W070L5LV</t>
+  </si>
+  <si>
+    <t>1AERKBZ96E4FXXNHY</t>
+  </si>
+  <si>
+    <t>NEU3SG8T54TJTWBZR</t>
+  </si>
+  <si>
+    <t>KKET7V5U14CZ618U5</t>
+  </si>
+  <si>
+    <t>NRCTGSU73J5DJ4KEX</t>
+  </si>
+  <si>
+    <t>DE3F5F6D8AU4UD75V</t>
+  </si>
+  <si>
+    <t>1Y019B5E7WD0V2TT4</t>
+  </si>
+  <si>
+    <t>UG7LD2W972N5758P8</t>
+  </si>
+  <si>
+    <t>8RGBUYJWXNLN89K5B</t>
+  </si>
+  <si>
+    <t>T7UGR6EE5MES5SL29</t>
+  </si>
+  <si>
+    <t>6D0FHW4R2X2NDD9LR</t>
+  </si>
+  <si>
+    <t>1GV7UJMA7MB2848E4</t>
+  </si>
+  <si>
+    <t>P68GCK48XN0ED9DXE</t>
+  </si>
+  <si>
+    <t>BFBGZW8F5ZY3YN01F</t>
+  </si>
+  <si>
+    <t>5HJFSVTE6BT826BR8</t>
+  </si>
+  <si>
+    <t>0ZPYWF9C3LBW2DGUR</t>
+  </si>
+  <si>
+    <t>R6H40NEU4T8E3SJD8</t>
+  </si>
+  <si>
+    <t>987E0H186K7MVTWMC</t>
+  </si>
+  <si>
+    <t>P6X9P4F89XJVX49B5</t>
+  </si>
+  <si>
+    <t>1C31SHJ19RC1LZ6MN</t>
+  </si>
+  <si>
+    <t>D4LRHVF3436CEKTE7</t>
+  </si>
+  <si>
+    <t>LV4JUU3F0CHCGBKRB</t>
+  </si>
+  <si>
+    <t>1WP4TFS22SPN2PHMV</t>
+  </si>
+  <si>
+    <t>81524ER47JWRG1LJ5</t>
+  </si>
+  <si>
+    <t>UNX8J7UK4SR394FXW</t>
+  </si>
+  <si>
+    <t>SMA91A6G4CGHS27PL</t>
+  </si>
+  <si>
+    <t>MJ8G9K676DWZAH09A</t>
+  </si>
+  <si>
+    <t>624B9AHN18TMMC9HT</t>
+  </si>
+  <si>
+    <t>BDHW01WZ29KNKJFF1</t>
+  </si>
+  <si>
+    <t>TXPEU00P32XBCNP7B</t>
+  </si>
+  <si>
+    <t>6AHMP30S96TWM5XB0</t>
+  </si>
+  <si>
+    <t>V6JXDPMH79SPVVSC7</t>
+  </si>
+  <si>
+    <t>YRXVSYK287U1EDXNP</t>
+  </si>
+  <si>
+    <t>6KCT07LH92A3ABV19</t>
+  </si>
+  <si>
+    <t>TCLKKYBL9LA4P0GEU</t>
+  </si>
+  <si>
+    <t>C1PPHUK15GS43KMGM</t>
+  </si>
+  <si>
+    <t>SSF5ASND90AZN2XBE</t>
+  </si>
+  <si>
+    <t>KVSKDD784JWKE27JM</t>
+  </si>
+  <si>
+    <t>RNCXGFPJ8XPEWSRTC</t>
+  </si>
+  <si>
+    <t>1D5CP82B3NK7NRSDS</t>
+  </si>
+  <si>
+    <t>8KBTPKZJX3B0A8F4K</t>
+  </si>
+  <si>
+    <t>5KCTL02P4EGWD2FCL</t>
+  </si>
+  <si>
+    <t>URU8EY6P9N36NXADH</t>
+  </si>
+  <si>
+    <t>5CJLUSHR0ZB7WC1N7</t>
+  </si>
+  <si>
+    <t>8DMF9L240Y708RKL0</t>
+  </si>
+  <si>
+    <t>A0YUPU9B5FHXF4SMK</t>
+  </si>
+  <si>
+    <t>BN0S9YKK0NS8S0JC5</t>
+  </si>
+  <si>
+    <t>EMFD87HC16F6SXG5L</t>
+  </si>
+  <si>
+    <t>WHJ2263M2JRVA624W</t>
+  </si>
+  <si>
+    <t>1B77Z7CZ7NN6M9VPA</t>
+  </si>
+  <si>
+    <t>1LKKMP1G1EY6GNT09</t>
+  </si>
+  <si>
+    <t>L9XYUPXG6WVREM4VC</t>
+  </si>
+  <si>
+    <t>V0JD7G5V84CD0TH3D</t>
+  </si>
+  <si>
+    <t>7KCLFYPY1TAZ5JB6K</t>
+  </si>
+  <si>
+    <t>HF30JRPE9JW5F0LFT</t>
+  </si>
+  <si>
+    <t>ULP58J10779FRPJT0</t>
+  </si>
+  <si>
+    <t>9HYHJD402FJ002TV2</t>
+  </si>
+  <si>
+    <t>3NRG52FE7RH8HSNKP</t>
+  </si>
+  <si>
+    <t>Christopher Bruce</t>
+  </si>
+  <si>
+    <t>Jennifer Sandoval</t>
+  </si>
+  <si>
+    <t>Jessica Evans</t>
+  </si>
+  <si>
+    <t>William Robinson</t>
+  </si>
+  <si>
+    <t>Michael Perez</t>
+  </si>
+  <si>
+    <t>Stephanie Carr</t>
   </si>
   <si>
     <t>Lisa Brown</t>
   </si>
   <si>
-    <t>Marc Church</t>
-  </si>
-  <si>
-    <t>Jennifer Gaines DVM</t>
-  </si>
-  <si>
-    <t>Theresa Reed</t>
-  </si>
-  <si>
-    <t>Benjamin Riley</t>
-  </si>
-  <si>
-    <t>Rachel Caldwell</t>
-  </si>
-  <si>
-    <t>Michael Patterson</t>
-  </si>
-  <si>
-    <t>Rebecca Gentry</t>
-  </si>
-  <si>
-    <t>John Patel</t>
-  </si>
-  <si>
-    <t>Jason Ferguson</t>
-  </si>
-  <si>
-    <t>Ryan Yates</t>
-  </si>
-  <si>
-    <t>Brian Foster</t>
-  </si>
-  <si>
-    <t>Robert Roman DDS</t>
-  </si>
-  <si>
-    <t>Daniel Avila</t>
-  </si>
-  <si>
-    <t>Gary Mason</t>
-  </si>
-  <si>
-    <t>Eric Watson</t>
-  </si>
-  <si>
-    <t>Theresa Roberts</t>
-  </si>
-  <si>
-    <t>Christopher Martin</t>
-  </si>
-  <si>
-    <t>Yolanda Singh</t>
-  </si>
-  <si>
-    <t>Jamie Barnes</t>
-  </si>
-  <si>
-    <t>Shelia Gray</t>
-  </si>
-  <si>
-    <t>Trevor Jenkins</t>
-  </si>
-  <si>
-    <t>Christie Alvarez</t>
-  </si>
-  <si>
-    <t>Dawn Thomas</t>
-  </si>
-  <si>
-    <t>Eric Jones</t>
-  </si>
-  <si>
-    <t>Melissa Jones</t>
-  </si>
-  <si>
-    <t>David Frey</t>
-  </si>
-  <si>
-    <t>Amy Reed</t>
-  </si>
-  <si>
-    <t>Robert Ortega</t>
-  </si>
-  <si>
-    <t>Mary Boone</t>
-  </si>
-  <si>
-    <t>Angela Macdonald</t>
-  </si>
-  <si>
-    <t>Chase Jones</t>
-  </si>
-  <si>
-    <t>Pamela King</t>
-  </si>
-  <si>
-    <t>Adam Warren</t>
-  </si>
-  <si>
-    <t>Mr. Michael Meyers Jr.</t>
-  </si>
-  <si>
-    <t>Mrs. Danielle Livingston</t>
-  </si>
-  <si>
-    <t>Marcus Parks</t>
-  </si>
-  <si>
-    <t>Jennifer Johnson</t>
-  </si>
-  <si>
-    <t>Timothy Barry</t>
-  </si>
-  <si>
-    <t>Joy Smith</t>
-  </si>
-  <si>
-    <t>Megan Farmer</t>
-  </si>
-  <si>
-    <t>Mr. James Dean</t>
-  </si>
-  <si>
-    <t>Jason Brandt</t>
-  </si>
-  <si>
-    <t>Sarah Campbell</t>
-  </si>
-  <si>
-    <t>Michele Mckay</t>
-  </si>
-  <si>
-    <t>Brian Lee</t>
-  </si>
-  <si>
-    <t>Robert Russell</t>
-  </si>
-  <si>
-    <t>Jay Mcguire</t>
-  </si>
-  <si>
-    <t>Krista Lane</t>
-  </si>
-  <si>
-    <t>Matthew Smith</t>
-  </si>
-  <si>
-    <t>Amanda Perez</t>
-  </si>
-  <si>
-    <t>Melissa Oconnell</t>
-  </si>
-  <si>
-    <t>Joan Rice</t>
-  </si>
-  <si>
-    <t>Brent Elliott</t>
-  </si>
-  <si>
-    <t>Melissa Barker</t>
-  </si>
-  <si>
-    <t>Mario Fleming</t>
-  </si>
-  <si>
-    <t>Lance Jackson</t>
-  </si>
-  <si>
-    <t>Julia Williams</t>
-  </si>
-  <si>
-    <t>Ruben Ross</t>
-  </si>
-  <si>
-    <t>Sean Fernandez</t>
-  </si>
-  <si>
-    <t>Crystal Harris</t>
-  </si>
-  <si>
-    <t>Amber Davis</t>
-  </si>
-  <si>
-    <t>Latoya Kerr</t>
-  </si>
-  <si>
-    <t>Melissa Green</t>
-  </si>
-  <si>
-    <t>Anna Ford</t>
-  </si>
-  <si>
-    <t>Barbara Howard</t>
-  </si>
-  <si>
-    <t>Destiny Greene</t>
-  </si>
-  <si>
-    <t>Matthew Bradley</t>
-  </si>
-  <si>
-    <t>Daniel Miller</t>
-  </si>
-  <si>
-    <t>Patricia Chang</t>
-  </si>
-  <si>
-    <t>Jessica Haas</t>
-  </si>
-  <si>
-    <t>Holly Steele</t>
-  </si>
-  <si>
-    <t>Randy Mcdonald</t>
-  </si>
-  <si>
-    <t>Kenneth Marquez</t>
-  </si>
-  <si>
-    <t>Frank Morrison</t>
-  </si>
-  <si>
-    <t>Michael Wolf</t>
-  </si>
-  <si>
-    <t>Janice Washington</t>
-  </si>
-  <si>
-    <t>Taylor Gomez</t>
-  </si>
-  <si>
-    <t>Cheryl Carr</t>
-  </si>
-  <si>
-    <t>Jessica Wilson</t>
-  </si>
-  <si>
-    <t>Joshua Duncan</t>
-  </si>
-  <si>
-    <t>Sarah Garza</t>
-  </si>
-  <si>
-    <t>David Santana</t>
-  </si>
-  <si>
-    <t>Janice Werner</t>
-  </si>
-  <si>
-    <t>Brian Owens</t>
-  </si>
-  <si>
-    <t>Kaitlyn Johnson</t>
-  </si>
-  <si>
-    <t>Julie Garza</t>
+    <t>Julia Vargas</t>
+  </si>
+  <si>
+    <t>Michelle Walker</t>
+  </si>
+  <si>
+    <t>David Carpenter</t>
+  </si>
+  <si>
+    <t>Timothy Chen</t>
+  </si>
+  <si>
+    <t>Dr. Nichole Thomas</t>
+  </si>
+  <si>
+    <t>Mrs. Sarah Garner</t>
+  </si>
+  <si>
+    <t>Dominique Wells</t>
+  </si>
+  <si>
+    <t>Megan Solis</t>
+  </si>
+  <si>
+    <t>Erica Sherman</t>
+  </si>
+  <si>
+    <t>Carlos Walls</t>
+  </si>
+  <si>
+    <t>Mark Arellano</t>
+  </si>
+  <si>
+    <t>Brian Steele</t>
+  </si>
+  <si>
+    <t>Matthew Carlson</t>
+  </si>
+  <si>
+    <t>Melissa Mcdaniel</t>
+  </si>
+  <si>
+    <t>Joseph Bell</t>
+  </si>
+  <si>
+    <t>Angela Foster</t>
+  </si>
+  <si>
+    <t>William Morgan</t>
+  </si>
+  <si>
+    <t>David Wilson</t>
+  </si>
+  <si>
+    <t>Claire Chang</t>
+  </si>
+  <si>
+    <t>Brittany Gaines</t>
+  </si>
+  <si>
+    <t>Maria Watson</t>
+  </si>
+  <si>
+    <t>Catherine Buchanan</t>
+  </si>
+  <si>
+    <t>James Perez</t>
+  </si>
+  <si>
+    <t>Tiffany Martin</t>
+  </si>
+  <si>
+    <t>Victoria Miller</t>
+  </si>
+  <si>
+    <t>Joshua Reeves</t>
+  </si>
+  <si>
+    <t>Nicholas Burton</t>
+  </si>
+  <si>
+    <t>Stanley Bell</t>
+  </si>
+  <si>
+    <t>Christine Powell</t>
+  </si>
+  <si>
+    <t>Sean Ramirez</t>
+  </si>
+  <si>
+    <t>Alexis Vang</t>
+  </si>
+  <si>
+    <t>Debra Nelson</t>
+  </si>
+  <si>
+    <t>Melissa Howard</t>
+  </si>
+  <si>
+    <t>Stacy Johnson</t>
+  </si>
+  <si>
+    <t>Shelly Harris</t>
+  </si>
+  <si>
+    <t>Terry Lawson</t>
+  </si>
+  <si>
+    <t>Michael Mora</t>
+  </si>
+  <si>
+    <t>Dennis Webb</t>
+  </si>
+  <si>
+    <t>Madison Duncan</t>
+  </si>
+  <si>
+    <t>Elaine Bell</t>
+  </si>
+  <si>
+    <t>Courtney Turner</t>
+  </si>
+  <si>
+    <t>Amanda Campos</t>
+  </si>
+  <si>
+    <t>Dillon Aguirre</t>
+  </si>
+  <si>
+    <t>Andrew Clay</t>
+  </si>
+  <si>
+    <t>Theresa Reynolds</t>
+  </si>
+  <si>
+    <t>Jennifer Thomas</t>
+  </si>
+  <si>
+    <t>Melissa Armstrong</t>
+  </si>
+  <si>
+    <t>Jeremy Mcgee</t>
+  </si>
+  <si>
+    <t>Paula Wyatt</t>
+  </si>
+  <si>
+    <t>Ricky Ellis</t>
+  </si>
+  <si>
+    <t>Mr. Christopher Taylor</t>
+  </si>
+  <si>
+    <t>Kristen Harris</t>
+  </si>
+  <si>
+    <t>Elaine Torres</t>
+  </si>
+  <si>
+    <t>Troy Barry</t>
+  </si>
+  <si>
+    <t>Katherine Gardner</t>
+  </si>
+  <si>
+    <t>Lisa Young</t>
+  </si>
+  <si>
+    <t>Tonya Hart</t>
+  </si>
+  <si>
+    <t>Diamond James</t>
+  </si>
+  <si>
+    <t>Morgan Sanchez</t>
+  </si>
+  <si>
+    <t>Heather Leonard</t>
+  </si>
+  <si>
+    <t>Christine Cook</t>
+  </si>
+  <si>
+    <t>Garrett Snyder</t>
+  </si>
+  <si>
+    <t>Aaron Brooks</t>
+  </si>
+  <si>
+    <t>Valerie Thompson</t>
+  </si>
+  <si>
+    <t>Antonio Bishop</t>
+  </si>
+  <si>
+    <t>Janice Hughes</t>
+  </si>
+  <si>
+    <t>Shawn Porter</t>
+  </si>
+  <si>
+    <t>Stephanie Allen</t>
+  </si>
+  <si>
+    <t>Michael Russell</t>
+  </si>
+  <si>
+    <t>Ms. Amanda Morris</t>
+  </si>
+  <si>
+    <t>Anthony Thomas</t>
+  </si>
+  <si>
+    <t>Noah Nelson</t>
   </si>
   <si>
     <t>Erin Jones</t>
   </si>
   <si>
-    <t>Brandy Blackwell</t>
+    <t>Bryan Goodwin</t>
+  </si>
+  <si>
+    <t>Amanda Simpson</t>
+  </si>
+  <si>
+    <t>Robert Martinez</t>
+  </si>
+  <si>
+    <t>Antonio Griffin</t>
+  </si>
+  <si>
+    <t>Danielle Robinson</t>
+  </si>
+  <si>
+    <t>Michael Cole</t>
+  </si>
+  <si>
+    <t>Lisa Williams</t>
+  </si>
+  <si>
+    <t>Nancy Cooley</t>
+  </si>
+  <si>
+    <t>Autumn Reese</t>
+  </si>
+  <si>
+    <t>Nicole Wagner</t>
+  </si>
+  <si>
+    <t>Evelyn Lee</t>
+  </si>
+  <si>
+    <t>Earl Olson</t>
+  </si>
+  <si>
+    <t>Thomas Kline</t>
+  </si>
+  <si>
+    <t>Katie Rice</t>
+  </si>
+  <si>
+    <t>Michael Dickerson</t>
+  </si>
+  <si>
+    <t>Alan Carr</t>
+  </si>
+  <si>
+    <t>Amanda Jones</t>
+  </si>
+  <si>
+    <t>Kelsey Gaines</t>
+  </si>
+  <si>
+    <t>Steven Lawrence</t>
+  </si>
+  <si>
+    <t>Marcus Sharp</t>
+  </si>
+  <si>
+    <t>Mr. Jonathon Stanley</t>
+  </si>
+  <si>
+    <t>Christopher Jimenez</t>
+  </si>
+  <si>
+    <t>Samuel Atkinson</t>
+  </si>
+  <si>
+    <t>William Thomas</t>
   </si>
   <si>
     <t>BSE</t>
@@ -1154,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1191,13 +1173,10 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2">
-        <v>850369</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1211,13 +1190,10 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F3">
-        <v>692244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1231,30 +1207,27 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4">
-        <v>260022</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1268,10 +1241,10 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1285,10 +1258,10 @@
         <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1302,10 +1275,10 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1319,61 +1292,61 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1387,231 +1360,231 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E21" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E23" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E24" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E26" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1625,44 +1598,44 @@
         <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E28" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E29" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1676,10 +1649,10 @@
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E30" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1693,10 +1666,10 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1710,10 +1683,10 @@
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E32" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1727,163 +1700,163 @@
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
         <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
         <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
         <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E37" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
         <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
         <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E39" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
         <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
         <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1897,10 +1870,10 @@
         <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E43" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1914,10 +1887,10 @@
         <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E44" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1931,27 +1904,27 @@
         <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E45" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
         <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E46" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1965,10 +1938,10 @@
         <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1982,10 +1955,10 @@
         <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E48" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1999,10 +1972,10 @@
         <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2016,10 +1989,10 @@
         <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2033,10 +2006,10 @@
         <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E51" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2050,10 +2023,10 @@
         <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E52" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2067,10 +2040,10 @@
         <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E53" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2084,10 +2057,10 @@
         <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E54" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2101,10 +2074,10 @@
         <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E55" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2118,10 +2091,10 @@
         <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2135,10 +2108,10 @@
         <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2152,10 +2125,10 @@
         <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E58" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2169,61 +2142,61 @@
         <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E59" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
         <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E60" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
         <v>105</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E61" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
         <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E62" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2237,10 +2210,10 @@
         <v>107</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E63" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2254,10 +2227,10 @@
         <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E64" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2271,10 +2244,10 @@
         <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E65" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2288,10 +2261,10 @@
         <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2305,10 +2278,10 @@
         <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E67" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2322,10 +2295,10 @@
         <v>112</v>
       </c>
       <c r="D68" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E68" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2339,10 +2312,10 @@
         <v>113</v>
       </c>
       <c r="D69" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E69" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2356,10 +2329,10 @@
         <v>114</v>
       </c>
       <c r="D70" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E70" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2373,27 +2346,27 @@
         <v>115</v>
       </c>
       <c r="D71" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E71" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
         <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E72" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2407,10 +2380,10 @@
         <v>117</v>
       </c>
       <c r="D73" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E73" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2424,10 +2397,10 @@
         <v>118</v>
       </c>
       <c r="D74" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E74" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2441,10 +2414,10 @@
         <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E75" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2458,78 +2431,78 @@
         <v>120</v>
       </c>
       <c r="D76" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E76" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
         <v>121</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E77" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C78" t="s">
         <v>122</v>
       </c>
       <c r="D78" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E78" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
         <v>123</v>
       </c>
       <c r="D79" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E79" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
         <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E80" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2543,44 +2516,44 @@
         <v>125</v>
       </c>
       <c r="D81" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E81" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
         <v>126</v>
       </c>
       <c r="D82" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
         <v>127</v>
       </c>
       <c r="D83" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E83" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2594,180 +2567,180 @@
         <v>128</v>
       </c>
       <c r="D84" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E84" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
         <v>129</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E85" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
         <v>130</v>
       </c>
       <c r="D86" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E86" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
         <v>131</v>
       </c>
       <c r="D87" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E87" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C88" t="s">
         <v>132</v>
       </c>
       <c r="D88" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C89" t="s">
         <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E89" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C90" t="s">
         <v>134</v>
       </c>
       <c r="D90" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s">
         <v>135</v>
       </c>
       <c r="D91" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C92" t="s">
         <v>136</v>
       </c>
       <c r="D92" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C93" t="s">
         <v>137</v>
       </c>
       <c r="D93" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E93" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
         <v>138</v>
       </c>
       <c r="D94" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E94" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2781,10 +2754,10 @@
         <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E95" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2798,61 +2771,61 @@
         <v>140</v>
       </c>
       <c r="D96" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E96" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
         <v>141</v>
       </c>
       <c r="D97" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E97" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C98" t="s">
         <v>142</v>
       </c>
       <c r="D98" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E98" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C99" t="s">
         <v>143</v>
       </c>
       <c r="D99" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E99" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2866,78 +2839,78 @@
         <v>144</v>
       </c>
       <c r="D100" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E100" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C101" t="s">
         <v>145</v>
       </c>
       <c r="D101" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E101" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C102" t="s">
         <v>146</v>
       </c>
       <c r="D102" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E102" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C103" t="s">
         <v>147</v>
       </c>
       <c r="D103" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E103" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C104" t="s">
         <v>148</v>
       </c>
       <c r="D104" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E104" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2951,61 +2924,10 @@
         <v>149</v>
       </c>
       <c r="D105" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E105" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>25</v>
-      </c>
-      <c r="B106" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" t="s">
-        <v>150</v>
-      </c>
-      <c r="D106" t="s">
-        <v>257</v>
-      </c>
-      <c r="E106" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>25</v>
-      </c>
-      <c r="B107" t="s">
-        <v>45</v>
-      </c>
-      <c r="C107" t="s">
-        <v>151</v>
-      </c>
-      <c r="D107" t="s">
-        <v>258</v>
-      </c>
-      <c r="E107" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>25</v>
-      </c>
-      <c r="B108" t="s">
-        <v>45</v>
-      </c>
-      <c r="C108" t="s">
-        <v>152</v>
-      </c>
-      <c r="D108" t="s">
-        <v>259</v>
-      </c>
-      <c r="E108" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
